--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\UiPath\Voltas\VoltasNonStandardExpensesRE\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\UiPath\Voltas\VoltasNonStandardExpenseEntryBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB42C33-E561-4109-9124-C7DAF0486397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3EBF0-AD69-42FC-9CAB-6ABB3B62BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -174,90 +174,12 @@
     <t>Shared/Voltas</t>
   </si>
   <si>
-    <t>DbConnection</t>
-  </si>
-  <si>
     <t>TadaVoltas</t>
   </si>
   <si>
-    <t>Major Part Replaced</t>
-  </si>
-  <si>
-    <t>Major Part Repl wth Gas Charge</t>
-  </si>
-  <si>
-    <t>Minor Part Replaced</t>
-  </si>
-  <si>
-    <t>MNPR</t>
-  </si>
-  <si>
-    <t>MJPR</t>
-  </si>
-  <si>
-    <t>MJPRWGC</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>Gas Charging</t>
-  </si>
-  <si>
     <t>MinAmount</t>
   </si>
   <si>
-    <t>Minmmun amount for a pincode to process</t>
-  </si>
-  <si>
-    <t>Action Groups</t>
-  </si>
-  <si>
-    <t>Extra transportation</t>
-  </si>
-  <si>
-    <t>Expense Sub Type</t>
-  </si>
-  <si>
-    <t>LocalExpenseType</t>
-  </si>
-  <si>
-    <t>UpCountryExpenseType</t>
-  </si>
-  <si>
-    <t>Transport Type</t>
-  </si>
-  <si>
-    <t>LocalTransportType</t>
-  </si>
-  <si>
-    <t>Three Wheeler</t>
-  </si>
-  <si>
-    <t>UpCountryTransportType</t>
-  </si>
-  <si>
-    <t>MinDistance</t>
-  </si>
-  <si>
-    <t>MidDistance</t>
-  </si>
-  <si>
-    <t>MaxDistance</t>
-  </si>
-  <si>
-    <t>Rates</t>
-  </si>
-  <si>
-    <t>RateType</t>
-  </si>
-  <si>
-    <t>{"DB","MJGAS"} DB for DB Rates , MJGAS for Major gas Rates</t>
-  </si>
-  <si>
-    <t>Dsn=voltas</t>
-  </si>
-  <si>
     <t>https://vcare.voltasworld.com/siebel/app/htim/enu?SWECmd=GotoView&amp;SWEView=CUT+Home+Page+View+(CME)&amp;SWERF=1&amp;SWEHo=vcare.voltasworld.com&amp;SWEBU=1&amp;SWEApplet0=Salutation+Applet+(WCC+Home)&amp;SWERowId0=VRId-0</t>
   </si>
   <si>
@@ -267,59 +189,26 @@
     <t>C:\Users\charan\Desktop\VoltasNSESlogs\OutPutSrLogsFile.xlsx</t>
   </si>
   <si>
-    <t>VoltasNonStandardExpenseAutomationRE</t>
-  </si>
-  <si>
-    <t>MinDistanceMJPRGMinus</t>
-  </si>
-  <si>
-    <t>MinDistanceMNPRMinus</t>
-  </si>
-  <si>
     <t>SrNotFoundStypeErr</t>
   </si>
   <si>
-    <t>AmountMJPRWGC</t>
-  </si>
-  <si>
-    <t>&lt;Min , &gt;Min &lt; mid , &gt;Mid &lt; max , &gt;Max   =  250,250,290,350</t>
-  </si>
-  <si>
-    <t>AmountMJPR</t>
-  </si>
-  <si>
-    <t>&lt;Min , &gt;Min &lt; mid , &gt;Mid &lt; max , &gt;Max   =  150,150,250,350</t>
-  </si>
-  <si>
-    <t>AmountMNPR</t>
-  </si>
-  <si>
-    <t>&lt;Min , &gt;Min &lt; mid , &gt;Mid &lt; max , &gt;Max   =  150,150,250,290</t>
-  </si>
-  <si>
-    <t>DescriptionPolicy</t>
-  </si>
-  <si>
-    <t>Dealer Remarks</t>
-  </si>
-  <si>
-    <t>Distance Bounds (25, 49 ,70)</t>
-  </si>
-  <si>
-    <t>Delete this Exps - Ue</t>
-  </si>
-  <si>
     <t>E:\voltas\err</t>
   </si>
   <si>
-    <t>specialCase</t>
+    <t>Delete this Exps - Bot</t>
+  </si>
+  <si>
+    <t>Minmmun amount for a expense</t>
+  </si>
+  <si>
+    <t>VoltasNonStandardExpenseEntryBot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,34 +243,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF464E55"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF464E55"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -403,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,23 +279,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,7 +597,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -803,7 +647,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -826,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
@@ -1836,10 +1680,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z959"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1912,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2021,206 +1865,76 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6">
-        <v>150</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="6">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
       </c>
     </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C21" s="15" t="s">
-        <v>57</v>
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="15"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="15"/>
-    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="6">
-        <v>20</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B41" s="6"/>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="6">
-        <v>49</v>
-      </c>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B43" s="6"/>
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="6">
-        <v>70</v>
-      </c>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -3116,42 +2830,7 @@
     <row r="957" ht="14.25" customHeight="1"/>
     <row r="958" ht="14.25" customHeight="1"/>
     <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C40:C44"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3161,10 +2840,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3223,7 +2902,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -3232,121 +2911,19 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4319,19 +3896,6 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\UiPath\Voltas\VoltasNonStandardExpenseEntryBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3EBF0-AD69-42FC-9CAB-6ABB3B62BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8C988-3056-4061-A6CF-EEBA97206295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -202,13 +202,16 @@
   </si>
   <si>
     <t>VoltasNonStandardExpenseEntryBot</t>
+  </si>
+  <si>
+    <t>voltas_call_status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -243,6 +246,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,6 +289,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,7 +1693,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z959"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2840,10 +2851,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2892,27 +2903,87 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>43</v>
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3896,6 +3967,8 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\UiPath\Voltas\VoltasNonStandardExpenseEntryBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8C988-3056-4061-A6CF-EEBA97206295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195137BB-9DBA-44C1-8A53-A98FA27706DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -202,16 +202,13 @@
   </si>
   <si>
     <t>VoltasNonStandardExpenseEntryBot</t>
-  </si>
-  <si>
-    <t>voltas_call_status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -246,13 +243,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,7 +279,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +596,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2851,10 +2840,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Z990"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2903,87 +2892,27 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>55</v>
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3967,8 +3896,6 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
